--- a/D_Diverses/WH_calculator.xlsx
+++ b/D_Diverses/WH_calculator.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\D_Dokumente\P_Privat\D_Diverses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Christoph Bolz\Documents\Privat\div\D_Diverses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73594CA-2575-4483-9B20-761002174B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD26D54-2BCF-43E9-A23C-68AB831A2233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{810CD67B-DC38-4B4E-8EC1-A8411912ADDC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{810CD67B-DC38-4B4E-8EC1-A8411912ADDC}"/>
   </bookViews>
   <sheets>
     <sheet name="2000" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="58">
   <si>
     <t>Ahriman</t>
   </si>
@@ -186,9 +186,6 @@
     <t>Sorcerer Terminator + 5terminators</t>
   </si>
   <si>
-    <t>proxen durch kultisten</t>
-  </si>
-  <si>
     <t>bestellt</t>
   </si>
   <si>
@@ -211,6 +208,9 @@
   </si>
   <si>
     <t>To Buy</t>
+  </si>
+  <si>
+    <t>Exalted Sorcerer on Disc + 6rubrics bolters + 4rubric flamers</t>
   </si>
 </sst>
 </file>
@@ -598,22 +598,22 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>56</v>
-      </c>
-      <c r="F1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -669,7 +669,7 @@
         <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -884,7 +884,7 @@
         <v>47</v>
       </c>
       <c r="K11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -946,7 +946,7 @@
         <v>47</v>
       </c>
       <c r="K13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -974,7 +974,7 @@
         <v>47</v>
       </c>
       <c r="K14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1318,43 +1318,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B74B60-88FD-400C-A669-AA4CC3F654E7}">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.88671875" customWidth="1"/>
-    <col min="8" max="8" width="49.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="48.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.88671875" customWidth="1"/>
+    <col min="6" max="6" width="49.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1368,21 +1362,14 @@
         <f>B2*C2</f>
         <v>100</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <f>B2-E2</f>
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="F2" t="s">
         <v>31</v>
       </c>
-      <c r="I2" t="s">
+      <c r="G2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1393,24 +1380,20 @@
         <f t="shared" ref="D3:D33" si="0">B3*C3</f>
         <v>0</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F33" si="1">B3-E3</f>
-        <v>0</v>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1421,18 +1404,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="F4" t="s">
         <v>44</v>
       </c>
-      <c r="I4" t="s">
+      <c r="G4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1443,46 +1422,32 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="F5" t="s">
         <v>34</v>
       </c>
-      <c r="I5" t="s">
+      <c r="G5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
       <c r="C6">
         <v>80</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
         <v>37</v>
       </c>
-      <c r="I6" t="s">
+      <c r="G6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1496,21 +1461,14 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="F7" t="s">
         <v>48</v>
       </c>
-      <c r="I7" t="s">
+      <c r="G7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1524,21 +1482,14 @@
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1549,18 +1500,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="F9" t="s">
         <v>40</v>
       </c>
-      <c r="I9" t="s">
+      <c r="G9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -1574,65 +1521,38 @@
         <f t="shared" si="0"/>
         <v>175</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>105</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>420</v>
-      </c>
-      <c r="E11">
-        <v>4</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
         <v>190</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1646,15 +1566,8 @@
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1665,12 +1578,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1681,12 +1590,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1697,12 +1602,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1716,15 +1617,8 @@
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1738,15 +1632,8 @@
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1760,15 +1647,8 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1779,12 +1659,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1795,22 +1671,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1818,12 +1686,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1834,12 +1698,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1850,12 +1710,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1866,12 +1722,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1885,25 +1737,14 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -1911,12 +1752,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -1927,12 +1764,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -1943,12 +1776,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -1959,12 +1788,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -1975,15 +1800,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D34">
         <f>SUM(D2:D33)</f>
-        <v>1490</v>
+        <v>1495</v>
       </c>
     </row>
   </sheetData>

--- a/D_Diverses/WH_calculator.xlsx
+++ b/D_Diverses/WH_calculator.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Christoph Bolz\Documents\Privat\div\D_Diverses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\D_Dokumente\P_Privat\D_Diverses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD26D54-2BCF-43E9-A23C-68AB831A2233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB23C02-0E3F-4673-BE07-638E176BEBFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{810CD67B-DC38-4B4E-8EC1-A8411912ADDC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{810CD67B-DC38-4B4E-8EC1-A8411912ADDC}"/>
   </bookViews>
   <sheets>
     <sheet name="2000" sheetId="2" r:id="rId1"/>
     <sheet name="1500" sheetId="3" r:id="rId2"/>
+    <sheet name="1500_alternative" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="56">
   <si>
     <t>Ahriman</t>
   </si>
@@ -129,9 +130,6 @@
     <t>The Stave Abominus</t>
   </si>
   <si>
-    <t>Big blob of flamers for board control and reanimation</t>
-  </si>
-  <si>
     <t>Ahriman on Disc</t>
   </si>
   <si>
@@ -147,9 +145,6 @@
     <t>backbone</t>
   </si>
   <si>
-    <t>Exalted Sorcerer on Disc + 5rubrics bolters</t>
-  </si>
-  <si>
     <t>Sorcerer + 5rubric bolters</t>
   </si>
   <si>
@@ -165,33 +160,12 @@
     <t>missions</t>
   </si>
   <si>
-    <t>Tzaangors</t>
-  </si>
-  <si>
-    <t>Sorcerer Terminator + 5terminators + Umbralific Cristal</t>
-  </si>
-  <si>
     <t>Infernal Master + 5rubric flamers + Eldrich Vortex</t>
   </si>
   <si>
-    <t>Exalted Sorcerer + 10rubrics flamers + Incandaeum</t>
-  </si>
-  <si>
-    <t>rubric kaufen</t>
-  </si>
-  <si>
-    <t>kaufen</t>
-  </si>
-  <si>
     <t>Sorcerer Terminator + 5terminators</t>
   </si>
   <si>
-    <t>bestellt</t>
-  </si>
-  <si>
-    <t>gekauft</t>
-  </si>
-  <si>
     <t>Unit</t>
   </si>
   <si>
@@ -204,13 +178,34 @@
     <t>Points</t>
   </si>
   <si>
-    <t>Posession</t>
-  </si>
-  <si>
-    <t>To Buy</t>
-  </si>
-  <si>
     <t>Exalted Sorcerer on Disc + 6rubrics bolters + 4rubric flamers</t>
+  </si>
+  <si>
+    <t>Forgefiend</t>
+  </si>
+  <si>
+    <t>Internal Master + 5 Rubric + Eldritch</t>
+  </si>
+  <si>
+    <t>Internal Master + 5 Rubric</t>
+  </si>
+  <si>
+    <t>Tzangors Bow</t>
+  </si>
+  <si>
+    <t>Tzangors</t>
+  </si>
+  <si>
+    <t>Exalted Sorcerer on Disc + 10 rubric + Umbralific</t>
+  </si>
+  <si>
+    <t>Exalted Sorcerer + 10 rubric + Incadeum</t>
+  </si>
+  <si>
+    <t>Exalted Sorcerer on Disc + 1aspiring + 1rubric soulReaper + 5rubrics bolters + 3rubric flamers + umbralific cristal</t>
+  </si>
+  <si>
+    <t>Exalted Sorcerer + 1aspiring + 1rubric soulReaper + 5rubrics bolters + 3rubric flamers + incandaeum</t>
   </si>
 </sst>
 </file>
@@ -582,69 +577,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBF4480-DEB2-4CC7-8894-E8DF9C0D5F1B}">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="C19" sqref="C19:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.88671875" customWidth="1"/>
-    <col min="8" max="8" width="49.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="48.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.88671875" customWidth="1"/>
+    <col min="6" max="6" width="49.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
       </c>
       <c r="C2">
         <v>100</v>
       </c>
       <c r="D2">
         <f>B2*C2</f>
-        <v>100</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <f>B2-E2</f>
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -655,24 +634,11 @@
         <f t="shared" ref="D3:D33" si="0">B3*C3</f>
         <v>0</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F33" si="1">B3-E3</f>
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -683,18 +649,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -705,18 +664,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -730,21 +682,11 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -758,21 +700,11 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -786,46 +718,29 @@
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
       <c r="C9">
         <v>435</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -839,117 +754,53 @@
         <f t="shared" si="0"/>
         <v>350</v>
       </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>105</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>420</v>
-      </c>
-      <c r="E11">
-        <v>4</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" t="s">
-        <v>47</v>
-      </c>
-      <c r="K11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>190</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>190</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
       <c r="C13">
         <v>180</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H13" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" t="s">
-        <v>47</v>
-      </c>
-      <c r="K13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -960,24 +811,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J14" t="s">
-        <v>47</v>
-      </c>
-      <c r="K14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -988,12 +823,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1004,56 +835,32 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
       <c r="C17">
         <v>85</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>170</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
       <c r="C18">
         <v>85</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1067,15 +874,8 @@
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1089,15 +889,8 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1108,22 +901,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1131,12 +916,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1150,15 +931,8 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1172,15 +946,8 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1191,12 +958,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1210,25 +973,14 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -1236,12 +988,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -1252,12 +1000,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -1268,12 +1012,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -1284,12 +1024,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -1300,15 +1036,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D34">
         <f>SUM(D2:D33)</f>
-        <v>2115</v>
+        <v>1995</v>
       </c>
     </row>
   </sheetData>
@@ -1318,10 +1050,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B74B60-88FD-400C-A669-AA4CC3F654E7}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1334,21 +1066,21 @@
     <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1363,13 +1095,13 @@
         <v>100</v>
       </c>
       <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
         <v>31</v>
       </c>
-      <c r="G2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1377,23 +1109,17 @@
         <v>65</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D33" si="0">B3*C3</f>
+        <f t="shared" ref="D3:D34" si="0">B3*C3</f>
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1405,13 +1131,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1423,13 +1149,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
         <v>34</v>
       </c>
-      <c r="G5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1441,13 +1167,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1462,141 +1188,141 @@
         <v>100</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
+        <v>140</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8" si="1">B8*C8</f>
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>95</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="F9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>95</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>435</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>175</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>105</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
         <v>190</v>
       </c>
-      <c r="F8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>435</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>175</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>105</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>315</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
+      <c r="D13">
+        <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>190</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
         <v>180</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>360</v>
       </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>80</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16">
-        <v>160</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
@@ -1605,22 +1331,19 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C17">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1635,53 +1358,59 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <v>70</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>160</v>
       </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
       <c r="D23">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1689,10 +1418,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
@@ -1701,10 +1427,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
@@ -1713,10 +1439,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
@@ -1725,29 +1451,32 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C27">
         <v>20</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
       <c r="D29">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1755,10 +1484,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
@@ -1767,10 +1493,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
@@ -1779,10 +1505,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C32">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
@@ -1791,20 +1517,507 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33">
+        <v>30</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>29</v>
       </c>
+      <c r="C34">
+        <v>20</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D35">
+        <f>SUM(D2:D34)</f>
+        <v>1495</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6F0F84-7EDB-47B1-81FF-28F2994AFF5B}">
+  <dimension ref="A1:F35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.88671875" customWidth="1"/>
+    <col min="6" max="6" width="91.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <f>B2*C2</f>
+        <v>100</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>65</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D34" si="0">B3*C3</f>
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>180</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>180</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>80</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
+        <v>140</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>95</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>435</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>175</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>105</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>190</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>180</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>360</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>80</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>160</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>85</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>85</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>55</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <v>70</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <v>160</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25">
+        <v>35</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>15</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27">
+        <v>20</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>20</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32">
+        <v>15</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
       <c r="C33">
+        <v>30</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34">
         <v>20</v>
       </c>
-      <c r="D33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D34">
-        <f>SUM(D2:D33)</f>
-        <v>1495</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D35">
+        <f>SUM(D2:D34)</f>
+        <v>1500</v>
       </c>
     </row>
   </sheetData>

--- a/D_Diverses/WH_calculator.xlsx
+++ b/D_Diverses/WH_calculator.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\D_Dokumente\P_Privat\D_Diverses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB23C02-0E3F-4673-BE07-638E176BEBFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E45E4B-13DD-4186-B2B4-E5FD0429F43C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{810CD67B-DC38-4B4E-8EC1-A8411912ADDC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{810CD67B-DC38-4B4E-8EC1-A8411912ADDC}"/>
   </bookViews>
   <sheets>
     <sheet name="2000" sheetId="2" r:id="rId1"/>
     <sheet name="1500" sheetId="3" r:id="rId2"/>
     <sheet name="1500_alternative" sheetId="4" r:id="rId3"/>
+    <sheet name="1500_alternative2" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="59">
   <si>
     <t>Ahriman</t>
   </si>
@@ -206,6 +207,15 @@
   </si>
   <si>
     <t>Exalted Sorcerer + 1aspiring + 1rubric soulReaper + 5rubrics bolters + 3rubric flamers + incandaeum</t>
+  </si>
+  <si>
+    <t>Sorcerer in Terminator + 1aspiring + 4 terminators</t>
+  </si>
+  <si>
+    <t>Exalted Sorcerer + 1aspiring + 1rubric soulReaper + 5rubrics bolters + 3rubric flamers</t>
+  </si>
+  <si>
+    <t>Exalted Sorcerer on Disc + 1aspiring + 1rubric soulReaper + 5rubrics bolters + 3rubric flamers</t>
   </si>
 </sst>
 </file>
@@ -1554,8 +1564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6F0F84-7EDB-47B1-81FF-28F2994AFF5B}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2023,4 +2033,473 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8104D03B-8447-4977-8E53-436B8DE372BD}">
+  <dimension ref="A1:F35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.88671875" customWidth="1"/>
+    <col min="6" max="6" width="91.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <f>B2*C2</f>
+        <v>100</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>65</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D34" si="0">B3*C3</f>
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>180</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>180</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>80</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
+        <v>140</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>95</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>435</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>175</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>105</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>190</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>180</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>360</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>80</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>160</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>85</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>85</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>55</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <v>70</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <v>160</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25">
+        <v>35</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26">
+        <v>15</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27">
+        <v>20</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28">
+        <v>20</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32">
+        <v>15</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33">
+        <v>30</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34">
+        <v>20</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D35">
+        <f>SUM(D2:D34)</f>
+        <v>1500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/D_Diverses/WH_calculator.xlsx
+++ b/D_Diverses/WH_calculator.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\D_Dokumente\P_Privat\D_Diverses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Christoph Bolz\Documents\Privat\div\D_Diverses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E45E4B-13DD-4186-B2B4-E5FD0429F43C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98759F4-25D7-4BB9-8950-8A002B370547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{810CD67B-DC38-4B4E-8EC1-A8411912ADDC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{810CD67B-DC38-4B4E-8EC1-A8411912ADDC}"/>
   </bookViews>
   <sheets>
     <sheet name="2000" sheetId="2" r:id="rId1"/>
@@ -590,7 +590,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:C20"/>
+      <selection activeCell="C2" sqref="C2:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -722,11 +722,11 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>190</v>
+        <v>260</v>
       </c>
       <c r="F8" t="s">
         <v>50</v>
@@ -740,11 +740,11 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>435</v>
+        <v>95</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>435</v>
+        <v>95</v>
       </c>
       <c r="F9" t="s">
         <v>50</v>
@@ -758,11 +758,11 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>175</v>
+        <v>435</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>350</v>
+        <v>870</v>
       </c>
       <c r="F10" t="s">
         <v>51</v>
@@ -776,11 +776,11 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>210</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -791,11 +791,11 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>380</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -803,7 +803,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
@@ -815,7 +815,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
@@ -827,7 +827,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
@@ -839,7 +839,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
@@ -851,7 +851,7 @@
         <v>3</v>
       </c>
       <c r="C17">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
@@ -863,7 +863,7 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
@@ -878,11 +878,11 @@
         <v>2</v>
       </c>
       <c r="C19">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -893,11 +893,11 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -905,14 +905,17 @@
         <v>19</v>
       </c>
       <c r="C21">
+        <v>70</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C22">
         <v>160</v>
       </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1050,7 +1053,7 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D34">
         <f>SUM(D2:D33)</f>
-        <v>1995</v>
+        <v>2240</v>
       </c>
     </row>
   </sheetData>
@@ -1062,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B74B60-88FD-400C-A669-AA4CC3F654E7}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1209,7 +1212,7 @@
         <v>47</v>
       </c>
       <c r="C8">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D8">
         <f t="shared" ref="D8" si="1">B8*C8</f>
@@ -1263,11 +1266,11 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1278,11 +1281,11 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>315</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1359,11 +1362,11 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1552,7 +1555,7 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D35">
         <f>SUM(D2:D34)</f>
-        <v>1495</v>
+        <v>1470</v>
       </c>
     </row>
   </sheetData>
@@ -1565,7 +1568,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1696,7 +1699,7 @@
         <v>47</v>
       </c>
       <c r="C8">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
@@ -1744,11 +1747,11 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1759,11 +1762,11 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1834,7 +1837,7 @@
         <v>3</v>
       </c>
       <c r="C18">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
@@ -2027,7 +2030,7 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D35">
         <f>SUM(D2:D34)</f>
-        <v>1500</v>
+        <v>1480</v>
       </c>
     </row>
   </sheetData>
@@ -2039,8 +2042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8104D03B-8447-4977-8E53-436B8DE372BD}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2171,7 +2174,7 @@
         <v>47</v>
       </c>
       <c r="C8">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
@@ -2216,11 +2219,11 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -2231,11 +2234,11 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -2309,7 +2312,7 @@
         <v>3</v>
       </c>
       <c r="C18">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
@@ -2496,7 +2499,7 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D35">
         <f>SUM(D2:D34)</f>
-        <v>1500</v>
+        <v>1485</v>
       </c>
     </row>
   </sheetData>
